--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrTeatmentIntent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1192,7 +1192,7 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -1402,7 +1402,7 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
@@ -1610,13 +1610,13 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1717,7 +1717,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>106</v>
@@ -1824,7 +1824,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>106</v>
